--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>1373.804361147683</v>
+        <v>520.9614631988574</v>
       </c>
       <c r="R2">
-        <v>12364.23925032914</v>
+        <v>4688.653168789716</v>
       </c>
       <c r="S2">
-        <v>0.02207639509843095</v>
+        <v>0.007220630862734733</v>
       </c>
       <c r="T2">
-        <v>0.02207639509843095</v>
+        <v>0.007220630862734732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>1510.449110609597</v>
+        <v>603.5531272674214</v>
       </c>
       <c r="R3">
-        <v>13594.04199548638</v>
+        <v>5431.978145406792</v>
       </c>
       <c r="S3">
-        <v>0.024272212467017</v>
+        <v>0.008365367970382278</v>
       </c>
       <c r="T3">
-        <v>0.02427221246701699</v>
+        <v>0.008365367970382277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>837.215077909102</v>
+        <v>458.1224973276373</v>
       </c>
       <c r="R4">
-        <v>7534.935701181917</v>
+        <v>4123.102475948735</v>
       </c>
       <c r="S4">
-        <v>0.0134536556768858</v>
+        <v>0.006349670132614723</v>
       </c>
       <c r="T4">
-        <v>0.01345365567688579</v>
+        <v>0.006349670132614722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>609.2840609029267</v>
+        <v>235.1325521070819</v>
       </c>
       <c r="R5">
-        <v>5483.55654812634</v>
+        <v>2116.192968963738</v>
       </c>
       <c r="S5">
-        <v>0.00979091058091606</v>
+        <v>0.003258984555504264</v>
       </c>
       <c r="T5">
-        <v>0.00979091058091606</v>
+        <v>0.003258984555504263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>16255.67267225996</v>
+        <v>15426.81412637188</v>
       </c>
       <c r="R6">
-        <v>146301.0540503396</v>
+        <v>138841.3271373469</v>
       </c>
       <c r="S6">
-        <v>0.2612210753238393</v>
+        <v>0.2138187525629578</v>
       </c>
       <c r="T6">
-        <v>0.2612210753238393</v>
+        <v>0.2138187525629578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>17872.53485617399</v>
@@ -883,10 +883,10 @@
         <v>160852.8137055659</v>
       </c>
       <c r="S7">
-        <v>0.2872032962289896</v>
+        <v>0.247716934733293</v>
       </c>
       <c r="T7">
-        <v>0.2872032962289896</v>
+        <v>0.247716934733293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>9906.428198700394</v>
+        <v>13566.0142114678</v>
       </c>
       <c r="R8">
-        <v>89157.85378830355</v>
+        <v>122094.1279032102</v>
       </c>
       <c r="S8">
-        <v>0.1591916790437657</v>
+        <v>0.1880276907588301</v>
       </c>
       <c r="T8">
-        <v>0.1591916790437657</v>
+        <v>0.1880276907588301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>7209.41244515279</v>
+        <v>6962.791746902787</v>
       </c>
       <c r="R9">
-        <v>64884.7120063751</v>
+        <v>62665.12572212509</v>
       </c>
       <c r="S9">
-        <v>0.115851894249176</v>
+        <v>0.09650569673574892</v>
       </c>
       <c r="T9">
-        <v>0.115851894249176</v>
+        <v>0.09650569673574892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2093.391641279652</v>
+        <v>4715.06589691672</v>
       </c>
       <c r="R10">
-        <v>18840.52477151687</v>
+        <v>42435.59307225049</v>
       </c>
       <c r="S10">
-        <v>0.0336398269474371</v>
+        <v>0.06535176349907712</v>
       </c>
       <c r="T10">
-        <v>0.0336398269474371</v>
+        <v>0.06535176349907712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2301.609772214509</v>
+        <v>5462.578268039341</v>
       </c>
       <c r="R11">
-        <v>20714.48794993058</v>
+        <v>49163.20441235408</v>
       </c>
       <c r="S11">
-        <v>0.03698579516181561</v>
+        <v>0.07571243559958472</v>
       </c>
       <c r="T11">
-        <v>0.0369857951618156</v>
+        <v>0.07571243559958472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1275.741361443969</v>
+        <v>4146.329270684147</v>
       </c>
       <c r="R12">
-        <v>11481.67225299572</v>
+        <v>37316.96343615732</v>
       </c>
       <c r="S12">
-        <v>0.02050056844711071</v>
+        <v>0.05746895924916853</v>
       </c>
       <c r="T12">
-        <v>0.0205005684471107</v>
+        <v>0.05746895924916853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>928.4219764694702</v>
+        <v>2128.114181205577</v>
       </c>
       <c r="R13">
-        <v>8355.797788225231</v>
+        <v>19153.0276308502</v>
       </c>
       <c r="S13">
-        <v>0.01491930798173006</v>
+        <v>0.02949609140354194</v>
       </c>
       <c r="T13">
-        <v>0.01491930798173006</v>
+        <v>0.02949609140354194</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>17.63582704474089</v>
+        <v>14.61941845219378</v>
       </c>
       <c r="R14">
-        <v>158.722443402668</v>
+        <v>131.574766069744</v>
       </c>
       <c r="S14">
-        <v>0.0002833995121416277</v>
+        <v>0.0002026280858145739</v>
       </c>
       <c r="T14">
-        <v>0.0002833995121416277</v>
+        <v>0.0002026280858145739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>19.38996557875245</v>
+        <v>16.93713709930311</v>
       </c>
       <c r="R15">
-        <v>174.509690208772</v>
+        <v>152.434233893728</v>
       </c>
       <c r="S15">
-        <v>0.0003115876999428883</v>
+        <v>0.0002347521333241406</v>
       </c>
       <c r="T15">
-        <v>0.0003115876999428882</v>
+        <v>0.0002347521333241405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>10.74751305995234</v>
+        <v>12.85600752438045</v>
       </c>
       <c r="R16">
-        <v>96.72761753957101</v>
+        <v>115.704067719424</v>
       </c>
       <c r="S16">
-        <v>0.0001727075203334199</v>
+        <v>0.0001781868549970992</v>
       </c>
       <c r="T16">
-        <v>0.0001727075203334199</v>
+        <v>0.0001781868549970992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>7.821512744525559</v>
+        <v>6.598378985421333</v>
       </c>
       <c r="R17">
-        <v>70.39361470073003</v>
+        <v>59.38541086879199</v>
       </c>
       <c r="S17">
-        <v>0.0001256880604683109</v>
+        <v>9.145486242610446E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001256880604683109</v>
+        <v>9.145486242610444E-05</v>
       </c>
     </row>
   </sheetData>
